--- a/Projekt_Táblázatok.xlsx
+++ b/Projekt_Táblázatok.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somogyibb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D925AD27-BA23-4258-8A02-F6BB59054562}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DDA789-7802-47E4-BA2A-79600D6B12CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{0C3DA0FB-A15A-46D2-BC08-5B9078606979}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{0C3DA0FB-A15A-46D2-BC08-5B9078606979}"/>
   </bookViews>
   <sheets>
     <sheet name="IP Címek" sheetId="1" r:id="rId1"/>
     <sheet name="Eszközök" sheetId="2" r:id="rId2"/>
+    <sheet name="Wifi_router" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="87">
   <si>
     <t>Blake-Router</t>
   </si>
@@ -109,137 +110,191 @@
     <t>10.0.0.18</t>
   </si>
   <si>
-    <t>172.16.30.1</t>
-  </si>
-  <si>
     <t>Blake-Win Server</t>
   </si>
   <si>
-    <t>172.16.30.254</t>
-  </si>
-  <si>
-    <t>172.16.30.253</t>
-  </si>
-  <si>
-    <t>Yang-Wifi Router</t>
-  </si>
-  <si>
-    <t>Yang-Server</t>
-  </si>
-  <si>
     <t>LAN</t>
   </si>
   <si>
+    <t>IPv6</t>
+  </si>
+  <si>
+    <t>FC00:FFFF:FFFF:FFFF:FFFF:FFFF:0:9/127</t>
+  </si>
+  <si>
+    <t>FC00:FFFF:FFFF:FFFF:FFFF:FFFF:0:B/127</t>
+  </si>
+  <si>
+    <t>1 Cisco 1841 Router</t>
+  </si>
+  <si>
+    <t>1 Cisco Catalyst 2960-X Series Switch</t>
+  </si>
+  <si>
+    <t>2 Virtuális szerver</t>
+  </si>
+  <si>
+    <t>1 Cisco 1841 Router, 2 Cisco Router</t>
+  </si>
+  <si>
+    <t>2 Cisco Catalyst 2960-X Series Switch</t>
+  </si>
+  <si>
+    <t>1 TP-Link wireless router</t>
+  </si>
+  <si>
+    <t>1 Cisco FPR 1000 Series ASA tűzfal</t>
+  </si>
+  <si>
+    <t>Blake-Linux Server</t>
+  </si>
+  <si>
+    <t>fa0/0</t>
+  </si>
+  <si>
+    <t>fa0/1</t>
+  </si>
+  <si>
+    <t>10.255.255.254</t>
+  </si>
+  <si>
+    <t>Ruby_ASA</t>
+  </si>
+  <si>
+    <t>Ruby-MasterRouter</t>
+  </si>
+  <si>
+    <t>10.255.255.253</t>
+  </si>
+  <si>
+    <t>10.255.255.250</t>
+  </si>
+  <si>
+    <t>Ruby-R1</t>
+  </si>
+  <si>
+    <t>Ruby-R2</t>
+  </si>
+  <si>
+    <t>fa0/0.10</t>
+  </si>
+  <si>
+    <t>fa0/0.20</t>
+  </si>
+  <si>
+    <t>fa0/0.100</t>
+  </si>
+  <si>
+    <t>fa0/1.10</t>
+  </si>
+  <si>
+    <t>fa0/1.20</t>
+  </si>
+  <si>
+    <t>fa0/1.100</t>
+  </si>
+  <si>
+    <t>vlan 10</t>
+  </si>
+  <si>
+    <t>vlan 20</t>
+  </si>
+  <si>
+    <t>vlan 100</t>
+  </si>
+  <si>
+    <t>192.168.10.0</t>
+  </si>
+  <si>
+    <t>192.168.20.0</t>
+  </si>
+  <si>
+    <t>192.168.100.0</t>
+  </si>
+  <si>
+    <t>Weiss-Wifi_Router</t>
+  </si>
+  <si>
+    <t>172.30.1.1</t>
+  </si>
+  <si>
+    <t>SSID</t>
+  </si>
+  <si>
+    <t>Weiss_WLAN</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Titkosítás</t>
+  </si>
+  <si>
+    <t>WPA2-PSK</t>
+  </si>
+  <si>
+    <t>AES</t>
+  </si>
+  <si>
+    <t>Jelszó</t>
+  </si>
+  <si>
+    <t>W3155-15-an-1c3-0,u33n</t>
+  </si>
+  <si>
+    <t>Wifi</t>
+  </si>
+  <si>
+    <t>Eth1/1</t>
+  </si>
+  <si>
+    <t>Eth1/2</t>
+  </si>
+  <si>
+    <t>Eth1/3</t>
+  </si>
+  <si>
+    <t>Eth1/4</t>
+  </si>
+  <si>
+    <t>Eth1/5</t>
+  </si>
+  <si>
+    <t>Eth1/8</t>
+  </si>
+  <si>
+    <t>10.0.0.1</t>
+  </si>
+  <si>
+    <t>10.0.0.9</t>
+  </si>
+  <si>
+    <t>10.255.255.249</t>
+  </si>
+  <si>
+    <t>10.0.0.21</t>
+  </si>
+  <si>
+    <t>10.0.0.17</t>
+  </si>
+  <si>
+    <t>10.0.0.25</t>
+  </si>
+  <si>
     <t>192.168.0.1</t>
   </si>
   <si>
-    <t>g0</t>
-  </si>
-  <si>
-    <t>IPv6</t>
-  </si>
-  <si>
-    <t>FC00:FFFF:FFFF:FFFF:FFFF:FFFF:0:9/127</t>
-  </si>
-  <si>
-    <t>FC00:FFFF:FFFF:FFFF:FFFF:FFFF:0:B/127</t>
-  </si>
-  <si>
-    <t>1 Cisco 1841 Router</t>
-  </si>
-  <si>
-    <t>1 Cisco Catalyst 2960-X Series Switch</t>
-  </si>
-  <si>
-    <t>2 Virtuális szerver</t>
-  </si>
-  <si>
-    <t>1 Cisco 1841 Router, 2 Cisco Router</t>
-  </si>
-  <si>
-    <t>2 Cisco Catalyst 2960-X Series Switch</t>
-  </si>
-  <si>
-    <t>1 TP-Link wireless router</t>
-  </si>
-  <si>
-    <t>1 Cisco FPR 1000 Series ASA tűzfal</t>
-  </si>
-  <si>
-    <t>Blake-Linux Server</t>
-  </si>
-  <si>
-    <t>fa0/0</t>
-  </si>
-  <si>
-    <t>fa0/1</t>
-  </si>
-  <si>
-    <t>10.255.255.254</t>
-  </si>
-  <si>
-    <t>Ruby_ASA</t>
-  </si>
-  <si>
-    <t>Ruby-MasterRouter</t>
-  </si>
-  <si>
-    <t>10.255.255.253</t>
-  </si>
-  <si>
-    <t>10.255.255.250</t>
-  </si>
-  <si>
-    <t>Ruby-R1</t>
-  </si>
-  <si>
-    <t>Ruby-R2</t>
-  </si>
-  <si>
-    <t>fa0/0.10</t>
-  </si>
-  <si>
-    <t>fa0/0.20</t>
-  </si>
-  <si>
-    <t>fa0/0.100</t>
-  </si>
-  <si>
-    <t>fa0/1.10</t>
-  </si>
-  <si>
-    <t>fa0/1.20</t>
-  </si>
-  <si>
-    <t>fa0/1.100</t>
-  </si>
-  <si>
-    <t>vlan 10</t>
-  </si>
-  <si>
-    <t>vlan 20</t>
-  </si>
-  <si>
-    <t>vlan 100</t>
-  </si>
-  <si>
-    <t>192.168.10.0</t>
-  </si>
-  <si>
-    <t>192.168.20.0</t>
-  </si>
-  <si>
-    <t>192.168.100.0</t>
-  </si>
-  <si>
-    <t>Weiss-Wifi_Router</t>
+    <t>192.168.0.254</t>
+  </si>
+  <si>
+    <t>192.168.0.253</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,8 +320,17 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,8 +379,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF01FF98"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -774,21 +844,79 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -816,81 +944,288 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -903,64 +1238,31 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1014,139 +1316,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1157,6 +1351,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF01FF98"/>
       <color rgb="FF00FFCC"/>
       <color rgb="FF00FFFF"/>
     </mruColors>
@@ -1469,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377E1871-5BE3-4102-A196-0C470A600A9B}">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1486,661 +1681,668 @@
   <sheetData>
     <row r="1" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="93"/>
+      <c r="E2" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19" t="s">
+      <c r="G2" s="96"/>
+      <c r="H2" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="20"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="107"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
     </row>
     <row r="3" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="108"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
     </row>
     <row r="4" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="52"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
     </row>
     <row r="5" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="98"/>
+      <c r="H5" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="52"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
     </row>
     <row r="6" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13" t="s">
+      <c r="F6" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="41"/>
+      <c r="C7" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="100"/>
       <c r="E7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
+      <c r="F7" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="3:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="43"/>
+      <c r="C8" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="102"/>
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44" t="s">
+      <c r="F8" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="56"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="106"/>
     </row>
     <row r="9" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="103"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="105"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="66"/>
     </row>
     <row r="10" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="78"/>
+    </row>
+    <row r="11" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="80"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
+    </row>
+    <row r="12" spans="3:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="70"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="61"/>
+    </row>
+    <row r="13" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="55"/>
+    </row>
+    <row r="14" spans="3:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="32"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="70"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="58"/>
+    </row>
+    <row r="15" spans="3:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="38"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="76"/>
+    </row>
+    <row r="16" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="74"/>
+      <c r="E16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="68"/>
+    </row>
+    <row r="17" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="33"/>
+    </row>
+    <row r="18" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C18" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="33"/>
+    </row>
+    <row r="19" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="33"/>
+    </row>
+    <row r="20" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="33"/>
+    </row>
+    <row r="22" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C22" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="33"/>
+    </row>
+    <row r="23" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="113"/>
-    </row>
-    <row r="11" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="108"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="110"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="17"/>
-    </row>
-    <row r="12" spans="3:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="98" t="s">
+      <c r="F23" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="33"/>
+    </row>
+    <row r="24" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
+      <c r="F24" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="33"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="55"/>
+    </row>
+    <row r="25" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="58"/>
+    </row>
+    <row r="26" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="17"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="55"/>
-    </row>
-    <row r="13" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C13" s="98"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15" t="s">
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="33"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="48"/>
+    </row>
+    <row r="27" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="32"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="70"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="90"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="50"/>
+    </row>
+    <row r="28" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C28" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="44"/>
+      <c r="E28" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="32"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
+    </row>
+    <row r="29" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="30"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="36"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="114"/>
+    </row>
+    <row r="30" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="25"/>
+    </row>
+    <row r="31" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C31" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="87"/>
+      <c r="E31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="17"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="51"/>
-    </row>
-    <row r="14" spans="3:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="98" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15" t="s">
+      <c r="I31" s="62"/>
+      <c r="J31" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="63"/>
+    </row>
+    <row r="32" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C32" s="88"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="85"/>
+      <c r="H32" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="60"/>
+    </row>
+    <row r="33" spans="3:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="82"/>
+      <c r="E33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="17"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="54"/>
-    </row>
-    <row r="15" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C15" s="98"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="98"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C17" s="98"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="95"/>
-      <c r="E18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="98"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="17"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="98"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="17"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="98"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="17"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C22" s="98"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="17"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C23" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="94"/>
-      <c r="E23" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="117"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="99"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="C24" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="94"/>
-      <c r="E24" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="117"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="99"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="115" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="119" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="120"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="107"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C27" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="88"/>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C28" s="89"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="92"/>
-      <c r="H28" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="93"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="100"/>
-    </row>
-    <row r="29" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="48"/>
-    </row>
-    <row r="33" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C34" s="49"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="51"/>
-    </row>
-    <row r="35" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="52"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54"/>
-    </row>
-    <row r="36" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C36" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="34"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="46"/>
-    </row>
-    <row r="37" spans="3:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="48"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="106">
+  <mergeCells count="123">
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="F17:G17"/>
     <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="O13:W14"/>
-    <mergeCell ref="C34:K35"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C14:D17"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H7:I7"/>
     <mergeCell ref="R12:S12"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J29:K29"/>
     <mergeCell ref="C2:D3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="H2:I3"/>
@@ -2149,34 +2351,97 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C18:D22"/>
+    <mergeCell ref="C22:D26"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="O13:W14"/>
+    <mergeCell ref="Q24:Y25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C10:D15"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C18:D21"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2199,107 +2464,99 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="71" t="s">
+      <c r="D8" s="130"/>
+      <c r="E8" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="73" t="s">
+      <c r="F8" s="133"/>
+      <c r="G8" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="74"/>
+      <c r="H8" s="136"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="76"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="138"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="78"/>
+      <c r="C10" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="116"/>
+      <c r="E10" s="117" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="118"/>
+      <c r="G10" s="116" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="119"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="119"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="78"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="78"/>
+      <c r="C11" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="119"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="119"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="82"/>
+      <c r="C12" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="118"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="139"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="80"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="139"/>
     </row>
     <row r="14" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="60"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="64"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
@@ -2316,7 +2573,97 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675855D4-2B6B-4609-AB58-F94E1EAE9546}">
+  <dimension ref="G7:K18"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="7:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="7:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="2"/>
+      <c r="H8" s="145" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G9" s="2"/>
+      <c r="H9" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="143" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="144"/>
+    </row>
+    <row r="10" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G10" s="2"/>
+      <c r="H10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="140" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="139"/>
+    </row>
+    <row r="11" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G11" s="2"/>
+      <c r="H11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="140" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="139"/>
+    </row>
+    <row r="12" spans="7:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="2"/>
+      <c r="H12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="141" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="142"/>
+    </row>
+    <row r="17" spans="9:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="9:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="H8:J8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Projekt_Táblázatok.xlsx
+++ b/Projekt_Táblázatok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somogyibb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DDA789-7802-47E4-BA2A-79600D6B12CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CE0AD8-B2B0-45A8-B767-D93517C056F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{0C3DA0FB-A15A-46D2-BC08-5B9078606979}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="89">
   <si>
     <t>Blake-Router</t>
   </si>
@@ -122,9 +122,6 @@
     <t>FC00:FFFF:FFFF:FFFF:FFFF:FFFF:0:9/127</t>
   </si>
   <si>
-    <t>FC00:FFFF:FFFF:FFFF:FFFF:FFFF:0:B/127</t>
-  </si>
-  <si>
     <t>1 Cisco 1841 Router</t>
   </si>
   <si>
@@ -288,6 +285,15 @@
   </si>
   <si>
     <t>192.168.0.253</t>
+  </si>
+  <si>
+    <t>FC00:FFFF:FFFF:FFFF:FFFF:FFFF:0:A1/124</t>
+  </si>
+  <si>
+    <t>FC00:FFFF:FFFF:FFFF:FFFF:FFFF:0:B1/124</t>
+  </si>
+  <si>
+    <t>FC00:FFFF:FFFF:FFFF:FFFF:FFFF:0:C1/124</t>
   </si>
 </sst>
 </file>
@@ -968,6 +974,243 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -995,43 +1238,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,286 +1250,82 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1666,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377E1871-5BE3-4102-A196-0C470A600A9B}">
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1681,644 +1687,747 @@
   <sheetData>
     <row r="1" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="96" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="107"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
+      <c r="K2" s="34"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
     </row>
     <row r="3" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="108"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="36"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
     </row>
     <row r="4" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+    </row>
+    <row r="5" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="52"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-    </row>
-    <row r="5" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="71"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="98" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="98"/>
-      <c r="H5" s="51" t="s">
+      <c r="F5" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="50"/>
+      <c r="H5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="52"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
     </row>
     <row r="6" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="71"/>
-      <c r="D6" s="72"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51" t="s">
+      <c r="F6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="26"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="100"/>
+      <c r="C7" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="52"/>
       <c r="E7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51" t="s">
+      <c r="F7" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="52"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="3:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="102"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103" t="s">
+      <c r="F8" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="106"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="66"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="95"/>
     </row>
     <row r="10" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="99"/>
+      <c r="E10" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="97"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="77"/>
+    </row>
+    <row r="11" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="27"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="79"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="29"/>
+    </row>
+    <row r="12" spans="3:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="73"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="91"/>
+    </row>
+    <row r="13" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="73"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="86"/>
+    </row>
+    <row r="14" spans="3:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="27"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="73"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="89"/>
+    </row>
+    <row r="15" spans="3:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="71"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="75"/>
+    </row>
+    <row r="16" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="78"/>
-    </row>
-    <row r="11" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="80"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="33"/>
-    </row>
-    <row r="12" spans="3:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32" t="s">
+      <c r="D16" s="70"/>
+      <c r="E16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="70"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="61"/>
-    </row>
-    <row r="13" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="70"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="55"/>
-    </row>
-    <row r="14" spans="3:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="70"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="58"/>
-    </row>
-    <row r="15" spans="3:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="76"/>
-    </row>
-    <row r="16" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="68"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="96"/>
     </row>
     <row r="17" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32" t="s">
+      <c r="F17" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="33"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="29"/>
     </row>
     <row r="18" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="29"/>
+    </row>
+    <row r="19" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="29"/>
+    </row>
+    <row r="20" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="29"/>
+    </row>
+    <row r="21" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="29"/>
+    </row>
+    <row r="22" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C22" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32" t="s">
+      <c r="D22" s="49"/>
+      <c r="E22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33"/>
-    </row>
-    <row r="19" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32" t="s">
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="29"/>
+    </row>
+    <row r="23" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="33"/>
-    </row>
-    <row r="20" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="33"/>
-    </row>
-    <row r="21" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="33"/>
-    </row>
-    <row r="22" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C22" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="33"/>
-    </row>
-    <row r="23" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="33"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="29"/>
     </row>
     <row r="24" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32" t="s">
+      <c r="G24" s="27"/>
+      <c r="H24" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="33"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="55"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="29"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="85"/>
+      <c r="U24" s="85"/>
+      <c r="V24" s="85"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="85"/>
+      <c r="Y24" s="86"/>
     </row>
     <row r="25" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32" t="s">
+      <c r="G25" s="27"/>
+      <c r="H25" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="33"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="58"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="29"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="88"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="89"/>
     </row>
     <row r="26" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32" t="s">
+      <c r="G26" s="27"/>
+      <c r="H26" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="33"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="84"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="29"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="58"/>
       <c r="S26" s="6"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="48"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="81"/>
     </row>
     <row r="27" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="111" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="112"/>
+      <c r="E27" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="106"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="27"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="73"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="82"/>
+      <c r="Y27" s="83"/>
+    </row>
+    <row r="28" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C28" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="26" t="s">
+      <c r="D28" s="112"/>
+      <c r="E28" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="32" t="s">
+      <c r="F28" s="106"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="70"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="90"/>
-      <c r="U27" s="90"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="50"/>
-    </row>
-    <row r="28" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C28" s="43" t="s">
+      <c r="I28" s="27"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="73"/>
+    </row>
+    <row r="29" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="26" t="s">
+      <c r="D29" s="114"/>
+      <c r="E29" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="32" t="s">
+      <c r="F29" s="109"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="70"/>
-    </row>
-    <row r="29" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="36"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="114"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="43"/>
     </row>
     <row r="30" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="25"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="104"/>
     </row>
     <row r="31" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="87"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62" t="s">
+      <c r="G31" s="24"/>
+      <c r="H31" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="K31" s="63"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="92"/>
     </row>
     <row r="32" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C32" s="88"/>
-      <c r="D32" s="89"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="85" t="s">
+      <c r="F32" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="85"/>
-      <c r="H32" s="59" t="s">
+      <c r="G32" s="59"/>
+      <c r="H32" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="90"/>
     </row>
     <row r="33" spans="3:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="82"/>
+      <c r="C33" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="56"/>
       <c r="E33" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91" t="s">
+      <c r="F33" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="91"/>
+      <c r="I33" s="66"/>
       <c r="J33" s="14"/>
       <c r="K33" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C18:D21"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="O13:W14"/>
+    <mergeCell ref="Q24:Y25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C10:D15"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C22:D26"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="N2:O3"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="J5:K5"/>
@@ -2343,105 +2452,6 @@
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C22:D26"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="O13:W14"/>
-    <mergeCell ref="Q24:Y25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C10:D15"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C18:D21"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2464,99 +2474,107 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="130"/>
-      <c r="E8" s="133" t="s">
+      <c r="D8" s="123"/>
+      <c r="E8" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="133"/>
-      <c r="G8" s="135" t="s">
+      <c r="F8" s="126"/>
+      <c r="G8" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="136"/>
+      <c r="H8" s="129"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="131"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="138"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="131"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="135" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="132"/>
+      <c r="E10" s="139" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="134"/>
+      <c r="G10" s="132" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="133"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="133"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="117" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="118"/>
-      <c r="G10" s="116" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="119"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="119"/>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="115" t="s">
+      <c r="D11" s="132"/>
+      <c r="E11" s="132" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="133"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="133"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116" t="s">
+      <c r="D12" s="132"/>
+      <c r="E12" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="119"/>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="115" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="118"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="139"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="137"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="139"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="137"/>
     </row>
     <row r="14" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="122"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="126"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
@@ -2573,14 +2591,6 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2605,7 +2615,7 @@
     <row r="8" spans="7:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G8" s="2"/>
       <c r="H8" s="145" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I8" s="146"/>
       <c r="J8" s="147"/>
@@ -2614,40 +2624,40 @@
     <row r="9" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G9" s="2"/>
       <c r="H9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="143" t="s">
         <v>63</v>
-      </c>
-      <c r="I9" s="143" t="s">
-        <v>64</v>
       </c>
       <c r="J9" s="144"/>
     </row>
     <row r="10" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G10" s="2"/>
       <c r="H10" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="140" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="139"/>
+        <v>64</v>
+      </c>
+      <c r="I10" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="137"/>
     </row>
     <row r="11" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G11" s="2"/>
       <c r="H11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="140" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="139"/>
+        <v>65</v>
+      </c>
+      <c r="I11" s="138" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="137"/>
     </row>
     <row r="12" spans="7:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G12" s="2"/>
       <c r="H12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="141" t="s">
         <v>69</v>
-      </c>
-      <c r="I12" s="141" t="s">
-        <v>70</v>
       </c>
       <c r="J12" s="142"/>
     </row>
